--- a/BA 3.2 Group list.xlsx
+++ b/BA 3.2 Group list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chabs\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkosimphile\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Std. no:</t>
   </si>
@@ -63,12 +63,6 @@
   </si>
   <si>
     <t>MNISI</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>MUKWEVHO</t>
   </si>
   <si>
     <t>3.2 BA GROUP</t>
@@ -540,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +548,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -585,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -643,42 +637,29 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>222041560</v>
+        <v>216038154</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>216038154</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="7">
+        <v>221278214</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>221278214</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
